--- a/data/trans_dic/IP2004-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,36</t>
+          <t>1,74; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,36</t>
+          <t>0,64; 4,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,27</t>
+          <t>0,27; 2,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,17</t>
+          <t>1,35; 5,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,17</t>
+          <t>0,93; 4,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,45</t>
+          <t>0,94; 4,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,67</t>
+          <t>1,48; 5,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,44</t>
+          <t>0,21; 2,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,39</t>
+          <t>1,71; 4,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,0</t>
+          <t>1,01; 3,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,18</t>
+          <t>1,13; 3,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,3</t>
+          <t>0,99; 3,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,59</t>
+          <t>3,15; 7,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,08</t>
+          <t>2,99; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,64</t>
+          <t>1,62; 5,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,67</t>
+          <t>1,33; 4,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,22</t>
+          <t>4,27; 9,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,12</t>
+          <t>3,48; 8,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,33</t>
+          <t>2,43; 6,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,81</t>
+          <t>0,77; 3,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,17</t>
+          <t>4,2; 7,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,21</t>
+          <t>3,72; 7,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,61</t>
+          <t>2,44; 5,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,5</t>
+          <t>1,36; 3,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0; 1,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0; 2,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 1,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,35</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0; 0,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0; 1,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,59</t>
+          <t>0,26; 2,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,08</t>
+          <t>0,26; 2,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,64</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,67</t>
+          <t>1,02; 5,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,22</t>
+          <t>0,23; 2,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,12</t>
+          <t>0,98; 4,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,33</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,81</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,17</t>
+          <t>0,41; 1,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,21</t>
+          <t>0,77; 2,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,61</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,5</t>
+          <t>0,52; 2,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,36</t>
+          <t>3,13; 9,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,36</t>
+          <t>1,75; 7,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,27</t>
+          <t>0,77; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,17</t>
+          <t>1,03; 4,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,17</t>
+          <t>2,19; 8,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 8,45</t>
+          <t>0,89; 5,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,67</t>
+          <t>2,64; 7,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,44</t>
+          <t>0,72; 4,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,39</t>
+          <t>3,21; 7,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,0</t>
+          <t>1,68; 5,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,18</t>
+          <t>2,13; 5,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,3</t>
+          <t>1,09; 3,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,35</t>
+          <t>3,19; 8,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,72</t>
+          <t>2,4; 8,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,5</t>
+          <t>1,95; 7,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,4</t>
+          <t>1,18; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,76</t>
+          <t>4,21; 10,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,4</t>
+          <t>4,1; 10,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,05</t>
+          <t>2,35; 7,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,23</t>
+          <t>0,67; 3,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,1</t>
+          <t>4,34; 8,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,63</t>
+          <t>3,94; 8,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,94</t>
+          <t>2,77; 6,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,54</t>
+          <t>1,22; 3,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 4,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 3,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 2,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 3,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 4,79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 4,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 4,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 2,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 4,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 3,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 2,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP2004-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,26</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,62</t>
+          <t>0,26; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,75</t>
+          <t>0,26; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,22 +879,22 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,43</t>
+          <t>0,98; 5,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,31</t>
+          <t>0,25; 2,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,51</t>
+          <t>0,92; 4,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,86</t>
+          <t>0,48; 2,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,79</t>
+          <t>0,82; 2,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,97</t>
+          <t>0,45; 2,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,94</t>
+          <t>3,06; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,08</t>
+          <t>1,89; 7,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,65</t>
+          <t>0,75; 4,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,97</t>
+          <t>0,92; 5,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,3</t>
+          <t>2,28; 8,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,1</t>
+          <t>0,86; 5,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,73</t>
+          <t>2,52; 7,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,76</t>
+          <t>0,68; 4,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,53</t>
+          <t>3,31; 7,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,4</t>
+          <t>1,88; 5,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,25</t>
+          <t>2,12; 5,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,59</t>
+          <t>1,12; 3,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,48</t>
+          <t>3,29; 8,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,28</t>
+          <t>2,31; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,34</t>
+          <t>2,11; 7,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,31</t>
+          <t>1,04; 4,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,33</t>
+          <t>4,11; 10,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,8</t>
+          <t>4,1; 10,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,84</t>
+          <t>2,39; 8,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,91</t>
+          <t>0,63; 3,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,04</t>
+          <t>4,2; 8,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 8,29</t>
+          <t>4,11; 8,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,53</t>
+          <t>2,69; 6,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,51</t>
+          <t>1,26; 3,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,34</t>
+          <t>2,12; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,61</t>
+          <t>1,55; 3,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,88</t>
+          <t>0,95; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,39</t>
+          <t>1,44; 3,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,79</t>
+          <t>2,51; 4,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,45</t>
+          <t>2,12; 4,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,07</t>
+          <t>1,74; 3,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,22</t>
+          <t>0,62; 2,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,18</t>
+          <t>2,63; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,12; 3,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,92</t>
+          <t>1,58; 3,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,48</t>
+          <t>1,17; 2,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2004-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2004-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,27 +656,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,04</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,5</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,39</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 1,56</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 2,18</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,38</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,13</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,04%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,61</t>
+          <t>0,23; 2,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,83</t>
+          <t>0,95; 4,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,59</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,5</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 5,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 4,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,22</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,96; 5,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,01</t>
+          <t>0,48; 1,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,9</t>
+          <t>0,75; 2,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,89</t>
+          <t>0,5; 3,01</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,81%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,2%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,71%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,39</t>
+          <t>2,29; 8,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,75</t>
+          <t>1,22; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,52</t>
+          <t>2,6; 8,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,02</t>
+          <t>0,64; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,6</t>
+          <t>2,97; 9,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,17</t>
+          <t>1,69; 7,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,5</t>
+          <t>0,75; 4,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,68</t>
+          <t>0,85; 4,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,93</t>
+          <t>3,27; 8,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,56</t>
+          <t>1,78; 5,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,02</t>
+          <t>2,23; 5,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,94</t>
+          <t>1,03; 3,7</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>5,52%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>4,73%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>4,2%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,36</t>
+          <t>4,25; 10,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,84</t>
+          <t>4,24; 10,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,32</t>
+          <t>2,22; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,3</t>
+          <t>0,53; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,29</t>
+          <t>3,06; 8,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,43</t>
+          <t>2,63; 8,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,49</t>
+          <t>2,09; 7,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,94</t>
+          <t>1,16; 4,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,17</t>
+          <t>4,38; 8,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,19</t>
+          <t>3,89; 8,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,39</t>
+          <t>2,73; 6,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,61</t>
+          <t>1,21; 3,34</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>3,17%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,43%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,38</t>
+          <t>2,37; 4,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,65</t>
+          <t>2,21; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,71</t>
+          <t>1,87; 4,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,46</t>
+          <t>0,61; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,8</t>
+          <t>2,24; 4,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,49</t>
+          <t>1,6; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,9</t>
+          <t>1,0; 2,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,24</t>
+          <t>1,54; 3,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,1</t>
+          <t>2,6; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,65</t>
+          <t>2,14; 3,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,0</t>
+          <t>1,57; 2,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,47</t>
+          <t>1,18; 2,53</t>
         </is>
       </c>
     </row>
